--- a/data/summary_22071811.xlsx
+++ b/data/summary_22071811.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,364 +406,409 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>32.48011049723757</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>986.8977900552486</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.1856553719008265</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1586404958677686</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.185569741685861</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.414906466954884e-005</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>31.29558011049724</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.521546961325967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>32.75359116022099</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>987.0011049723757</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.2653801652892562</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1982157024793388</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.881476439061148</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3.155623372025688e-017</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>30.53093922651934</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>7.632596685082874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>32.74088397790055</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>986.946408839779</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.3359157024793388</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2443900826446281</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.369233796381102</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.155579599985338e-017</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>30.37845303867403</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.10939226519337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>32.3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>987</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.464480551132858e-016</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30.35384615384615</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.807692307692308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>32.90055248618785</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>987.0038674033149</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.2749925619834711</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.209300826446281</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.950228829564354</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.15053410640176e-017</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>30.1</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.510497237569061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>33.3475138121547</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>987.0033149171271</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.3398487603305785</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.2697330578512397</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.295129202577308</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.662720524109559e-006</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>29.78011049723757</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.450828729281768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>33.16</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>987</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0004520521568880987</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>29.5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.322857142857143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>33.38121546961326</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>986.9745856353591</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.2288247933884298</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2082545454545454</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.460333599529124</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.0001102043116952485</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>29.44198895027624</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.298342541436464</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>34.49889502762431</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>987</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.3363388429752066</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.2935264462809917</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.28652777302312</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5.546949812929218e-005</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30.1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.490055248618785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>34.68674033149171</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>986.992817679558</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.3845322314049587</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.3209768595041322</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.631344775934356</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6.574766380952847e-005</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>30.7</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.599447513812155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>34.95690607734807</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>986.924861878453</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.2944181818181818</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2780504132231405</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.867870889418861</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.0001337265532331604</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>31.2585635359116</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.3806629834254144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>36.44198895027624</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>986.9381215469613</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.5126694214876033</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.4261454545454546</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3.511315102558242</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.0002086842580167059</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>31.7</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4.81767955801105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>38.14696132596685</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>987.0022099447514</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.2778289256198347</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.2348768595041322</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.917341799116355</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>8.371711370427752e-005</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>32.21215469613259</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>39.18</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>987</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5.368020564752211e-017</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>32.7</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.896</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>40.06243093922652</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>987.0060773480664</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.2030553719008265</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.175004958677686</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.361155734082227</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.0001721769645173152</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>32.7</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.9</v>
       </c>
     </row>
